--- a/DIAS Information Levels - Attributes 2017.xlsx
+++ b/DIAS Information Levels - Attributes 2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udacity_MachineLearningEngineer\Capstone Project\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\udacity_capstone_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90BDB6D-308A-4F9F-9DB5-BF9DD214E8BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B8EEA0-4D07-4FA0-A9C0-A1A4BE35AA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17088" yWindow="1524" windowWidth="11316" windowHeight="4656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Komplett" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Komplett!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="820">
   <si>
     <t>PLZ</t>
   </si>
@@ -2608,6 +2607,22 @@
   <si>
     <t>KBA05_SEG6</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANREDE_KZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINANZTYP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATIONALITAET_KZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOPPER_TYP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3259,6 +3274,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3274,25 +3307,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3306,12 +3327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3656,11 +3671,11 @@
   </sheetPr>
   <dimension ref="B1:F315"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3708,7 +3723,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="102" t="s">
         <v>344</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -3725,9 +3740,9 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>816</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>149</v>
@@ -3738,7 +3753,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="B6" s="97"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="34" t="s">
         <v>312</v>
       </c>
@@ -3753,14 +3768,14 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="98" t="s">
         <v>638</v>
       </c>
       <c r="F7" s="73" t="s">
@@ -3768,85 +3783,85 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="93"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="73" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="73" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="97"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="73" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="97"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="18" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="93"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="73" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="97"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="73" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="97"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="18" t="s">
-        <v>117</v>
+        <v>817</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="73" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
@@ -3859,7 +3874,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="18" t="s">
         <v>585</v>
       </c>
@@ -3872,7 +3887,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="53" t="s">
         <v>348</v>
       </c>
@@ -3887,7 +3902,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="34" t="s">
         <v>105</v>
       </c>
@@ -3902,7 +3917,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="64" t="s">
         <v>564</v>
       </c>
@@ -3917,7 +3932,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="64" t="s">
         <v>565</v>
       </c>
@@ -3932,7 +3947,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="18" t="s">
         <v>566</v>
       </c>
@@ -3945,7 +3960,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="18" t="s">
         <v>567</v>
       </c>
@@ -3958,7 +3973,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="18" t="s">
         <v>568</v>
       </c>
@@ -3971,7 +3986,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="18" t="s">
         <v>569</v>
       </c>
@@ -3984,9 +3999,9 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="34" t="s">
-        <v>19</v>
+        <v>818</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>152</v>
@@ -3999,7 +4014,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="53" t="s">
         <v>118</v>
       </c>
@@ -4014,7 +4029,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="18" t="s">
         <v>583</v>
       </c>
@@ -4027,14 +4042,14 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="105" t="s">
         <v>643</v>
       </c>
       <c r="F27" s="72" t="s">
@@ -4042,189 +4057,189 @@
       </c>
     </row>
     <row r="28" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="104"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E29" s="104"/>
+      <c r="E29" s="106"/>
       <c r="F29" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="97"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E30" s="104"/>
+      <c r="E30" s="106"/>
       <c r="F30" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="97"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E31" s="104"/>
+      <c r="E31" s="106"/>
       <c r="F31" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B32" s="97"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="104"/>
+      <c r="E32" s="106"/>
       <c r="F32" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="97"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E33" s="104"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="97"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="104"/>
+      <c r="E34" s="106"/>
       <c r="F34" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="97"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="104"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="97"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="104"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B37" s="97"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="104"/>
+      <c r="E37" s="106"/>
       <c r="F37" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B38" s="97"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E38" s="104"/>
+      <c r="E38" s="106"/>
       <c r="F38" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B39" s="97"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E39" s="104"/>
+      <c r="E39" s="106"/>
       <c r="F39" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B40" s="97"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E40" s="104"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="97"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="6" t="s">
-        <v>106</v>
+        <v>819</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="105"/>
+      <c r="E41" s="107"/>
       <c r="F41" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="97"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="6" t="s">
         <v>110</v>
       </c>
@@ -4237,7 +4252,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="97"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="22" t="s">
         <v>18</v>
       </c>
@@ -4250,7 +4265,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="52" t="s">
         <v>107</v>
       </c>
@@ -4265,7 +4280,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="66" t="s">
         <v>349</v>
       </c>
@@ -4280,7 +4295,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="95" t="s">
         <v>343</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -4295,7 +4310,7 @@
       </c>
     </row>
     <row r="47" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B47" s="96"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="5" t="s">
         <v>14</v>
       </c>
@@ -4308,7 +4323,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B48" s="96"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
@@ -4321,7 +4336,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B49" s="96"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="5" t="s">
         <v>16</v>
       </c>
@@ -4334,7 +4349,7 @@
       </c>
     </row>
     <row r="50" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B50" s="96"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="62" t="s">
         <v>90</v>
       </c>
@@ -4349,14 +4364,14 @@
       </c>
     </row>
     <row r="51" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="96"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="5" t="s">
         <v>579</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="E51" s="103" t="s">
+      <c r="E51" s="105" t="s">
         <v>634</v>
       </c>
       <c r="F51" s="72" t="s">
@@ -4364,319 +4379,319 @@
       </c>
     </row>
     <row r="52" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="96"/>
+      <c r="B52" s="95"/>
       <c r="C52" s="5" t="s">
         <v>580</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="E52" s="101"/>
+      <c r="E52" s="92"/>
       <c r="F52" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B53" s="96"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="29" t="s">
         <v>660</v>
       </c>
       <c r="D53" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="E53" s="101"/>
+      <c r="E53" s="92"/>
       <c r="F53" s="77" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B54" s="96"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="29" t="s">
         <v>648</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="E54" s="101"/>
+      <c r="E54" s="92"/>
       <c r="F54" s="77" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B55" s="96"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="29" t="s">
         <v>346</v>
       </c>
       <c r="D55" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="E55" s="101"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="77" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B56" s="96"/>
+      <c r="B56" s="95"/>
       <c r="C56" s="29" t="s">
         <v>649</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="E56" s="101"/>
+      <c r="E56" s="92"/>
       <c r="F56" s="77" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B57" s="96"/>
+      <c r="B57" s="95"/>
       <c r="C57" s="5" t="s">
         <v>294</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="E57" s="101"/>
+      <c r="E57" s="92"/>
       <c r="F57" s="72" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="96"/>
+      <c r="B58" s="95"/>
       <c r="C58" s="5" t="s">
         <v>308</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E58" s="101"/>
+      <c r="E58" s="92"/>
       <c r="F58" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="96"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="5" t="s">
         <v>307</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="E59" s="101"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="72" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="96"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="7" t="s">
         <v>306</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E60" s="101"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="96"/>
+      <c r="B61" s="95"/>
       <c r="C61" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E61" s="101"/>
+      <c r="E61" s="92"/>
       <c r="F61" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="96"/>
+      <c r="B62" s="95"/>
       <c r="C62" s="7" t="s">
         <v>304</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="E62" s="101"/>
+      <c r="E62" s="92"/>
       <c r="F62" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="96"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="7" t="s">
         <v>303</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="E63" s="101"/>
+      <c r="E63" s="92"/>
       <c r="F63" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B64" s="96"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="7" t="s">
         <v>302</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E64" s="101"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="96"/>
+      <c r="B65" s="95"/>
       <c r="C65" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="E65" s="101"/>
+      <c r="E65" s="92"/>
       <c r="F65" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="96"/>
+      <c r="B66" s="95"/>
       <c r="C66" s="7" t="s">
         <v>300</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E66" s="101"/>
+      <c r="E66" s="92"/>
       <c r="F66" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="96"/>
+      <c r="B67" s="95"/>
       <c r="C67" s="7" t="s">
         <v>299</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E67" s="101"/>
+      <c r="E67" s="92"/>
       <c r="F67" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="96"/>
+      <c r="B68" s="95"/>
       <c r="C68" s="7" t="s">
         <v>298</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="E68" s="101"/>
+      <c r="E68" s="92"/>
       <c r="F68" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="96"/>
+      <c r="B69" s="95"/>
       <c r="C69" s="7" t="s">
         <v>297</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E69" s="101"/>
+      <c r="E69" s="92"/>
       <c r="F69" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="96"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="7" t="s">
         <v>661</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="E70" s="101"/>
+      <c r="E70" s="92"/>
       <c r="F70" s="78" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="96"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="7" t="s">
         <v>295</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E71" s="101"/>
+      <c r="E71" s="92"/>
       <c r="F71" s="78" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="96"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="31" t="s">
         <v>733</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="E72" s="101"/>
+      <c r="E72" s="92"/>
       <c r="F72" s="78" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="96"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="E73" s="101"/>
+      <c r="E73" s="92"/>
       <c r="F73" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="96"/>
+      <c r="B74" s="95"/>
       <c r="C74" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="E74" s="101"/>
+      <c r="E74" s="92"/>
       <c r="F74" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B75" s="96"/>
+      <c r="B75" s="95"/>
       <c r="C75" s="7" t="s">
         <v>311</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="E75" s="106"/>
+      <c r="E75" s="108"/>
       <c r="F75" s="78" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B76" s="96"/>
+      <c r="B76" s="95"/>
       <c r="C76" s="5" t="s">
         <v>108</v>
       </c>
@@ -4689,7 +4704,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="99"/>
+      <c r="B77" s="96"/>
       <c r="C77" s="9" t="s">
         <v>109</v>
       </c>
@@ -4702,7 +4717,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="95" t="s">
         <v>129</v>
       </c>
       <c r="C78" s="25" t="s">
@@ -4717,7 +4732,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="96"/>
+      <c r="B79" s="95"/>
       <c r="C79" s="39" t="s">
         <v>4</v>
       </c>
@@ -4730,7 +4745,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="96"/>
+      <c r="B80" s="95"/>
       <c r="C80" s="14" t="s">
         <v>3</v>
       </c>
@@ -4743,7 +4758,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="96"/>
+      <c r="B81" s="95"/>
       <c r="C81" s="15" t="s">
         <v>9</v>
       </c>
@@ -4758,7 +4773,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="96"/>
+      <c r="B82" s="95"/>
       <c r="C82" s="14" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +4786,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="96"/>
+      <c r="B83" s="95"/>
       <c r="C83" s="14" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4799,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="96"/>
+      <c r="B84" s="95"/>
       <c r="C84" s="38" t="s">
         <v>576</v>
       </c>
@@ -4799,7 +4814,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="96"/>
+      <c r="B85" s="95"/>
       <c r="C85" s="14" t="s">
         <v>5</v>
       </c>
@@ -4812,7 +4827,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="96"/>
+      <c r="B86" s="95"/>
       <c r="C86" s="38" t="s">
         <v>574</v>
       </c>
@@ -4825,7 +4840,7 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="96"/>
+      <c r="B87" s="95"/>
       <c r="C87" s="14" t="s">
         <v>6</v>
       </c>
@@ -4838,7 +4853,7 @@
       </c>
     </row>
     <row r="88" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="94" t="s">
+      <c r="B88" s="100" t="s">
         <v>420</v>
       </c>
       <c r="C88" s="35" t="s">
@@ -4847,7 +4862,7 @@
       <c r="D88" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="E88" s="100" t="s">
+      <c r="E88" s="104" t="s">
         <v>427</v>
       </c>
       <c r="F88" s="81" t="s">
@@ -4855,27 +4870,27 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="91"/>
+      <c r="B89" s="97"/>
       <c r="C89" s="14" t="s">
         <v>423</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E89" s="101"/>
+      <c r="E89" s="92"/>
       <c r="F89" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="95"/>
+      <c r="B90" s="101"/>
       <c r="C90" s="24" t="s">
         <v>424</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E90" s="102"/>
+      <c r="E90" s="93"/>
       <c r="F90" s="79" t="s">
         <v>650</v>
       </c>
@@ -4998,7 +5013,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="91" t="s">
+      <c r="B100" s="97" t="s">
         <v>562</v>
       </c>
       <c r="C100" s="14" t="s">
@@ -5013,7 +5028,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="91"/>
+      <c r="B101" s="97"/>
       <c r="C101" s="14" t="s">
         <v>83</v>
       </c>
@@ -5026,7 +5041,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="91"/>
+      <c r="B102" s="97"/>
       <c r="C102" s="14" t="s">
         <v>31</v>
       </c>
@@ -5039,7 +5054,7 @@
       </c>
     </row>
     <row r="103" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B103" s="91"/>
+      <c r="B103" s="97"/>
       <c r="C103" s="14" t="s">
         <v>32</v>
       </c>
@@ -5052,7 +5067,7 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B104" s="91"/>
+      <c r="B104" s="97"/>
       <c r="C104" s="14" t="s">
         <v>33</v>
       </c>
@@ -5065,7 +5080,7 @@
       </c>
     </row>
     <row r="105" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B105" s="91"/>
+      <c r="B105" s="97"/>
       <c r="C105" s="14" t="s">
         <v>34</v>
       </c>
@@ -5078,7 +5093,7 @@
       </c>
     </row>
     <row r="106" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B106" s="91"/>
+      <c r="B106" s="97"/>
       <c r="C106" s="14" t="s">
         <v>52</v>
       </c>
@@ -5091,7 +5106,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B107" s="91"/>
+      <c r="B107" s="97"/>
       <c r="C107" s="14" t="s">
         <v>46</v>
       </c>
@@ -5104,7 +5119,7 @@
       </c>
     </row>
     <row r="108" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B108" s="91"/>
+      <c r="B108" s="97"/>
       <c r="C108" s="14" t="s">
         <v>88</v>
       </c>
@@ -5117,7 +5132,7 @@
       </c>
     </row>
     <row r="109" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B109" s="91"/>
+      <c r="B109" s="97"/>
       <c r="C109" s="14" t="s">
         <v>67</v>
       </c>
@@ -5130,7 +5145,7 @@
       </c>
     </row>
     <row r="110" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B110" s="91"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="14" t="s">
         <v>68</v>
       </c>
@@ -5143,7 +5158,7 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="91"/>
+      <c r="B111" s="97"/>
       <c r="C111" s="14" t="s">
         <v>69</v>
       </c>
@@ -5156,7 +5171,7 @@
       </c>
     </row>
     <row r="112" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="91"/>
+      <c r="B112" s="97"/>
       <c r="C112" s="14" t="s">
         <v>70</v>
       </c>
@@ -5169,7 +5184,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B113" s="91"/>
+      <c r="B113" s="97"/>
       <c r="C113" s="14" t="s">
         <v>71</v>
       </c>
@@ -5182,7 +5197,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B114" s="91"/>
+      <c r="B114" s="97"/>
       <c r="C114" s="14" t="s">
         <v>81</v>
       </c>
@@ -5195,7 +5210,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B115" s="91"/>
+      <c r="B115" s="97"/>
       <c r="C115" s="14" t="s">
         <v>75</v>
       </c>
@@ -5208,7 +5223,7 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B116" s="91"/>
+      <c r="B116" s="97"/>
       <c r="C116" s="14" t="s">
         <v>74</v>
       </c>
@@ -5221,7 +5236,7 @@
       </c>
     </row>
     <row r="117" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B117" s="91"/>
+      <c r="B117" s="97"/>
       <c r="C117" s="14" t="s">
         <v>73</v>
       </c>
@@ -5234,7 +5249,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="91"/>
+      <c r="B118" s="97"/>
       <c r="C118" s="14" t="s">
         <v>65</v>
       </c>
@@ -5247,7 +5262,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="91"/>
+      <c r="B119" s="97"/>
       <c r="C119" s="14" t="s">
         <v>64</v>
       </c>
@@ -5260,7 +5275,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B120" s="91"/>
+      <c r="B120" s="97"/>
       <c r="C120" s="14" t="s">
         <v>66</v>
       </c>
@@ -5273,7 +5288,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B121" s="91"/>
+      <c r="B121" s="97"/>
       <c r="C121" s="14" t="s">
         <v>39</v>
       </c>
@@ -5286,7 +5301,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="91"/>
+      <c r="B122" s="97"/>
       <c r="C122" s="14" t="s">
         <v>28</v>
       </c>
@@ -5299,7 +5314,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B123" s="91"/>
+      <c r="B123" s="97"/>
       <c r="C123" s="14" t="s">
         <v>29</v>
       </c>
@@ -5312,7 +5327,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="91"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="14" t="s">
         <v>30</v>
       </c>
@@ -5325,7 +5340,7 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="91"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="14" t="s">
         <v>45</v>
       </c>
@@ -5338,7 +5353,7 @@
       </c>
     </row>
     <row r="126" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="91"/>
+      <c r="B126" s="97"/>
       <c r="C126" s="14" t="s">
         <v>40</v>
       </c>
@@ -5351,7 +5366,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="91"/>
+      <c r="B127" s="97"/>
       <c r="C127" s="14" t="s">
         <v>72</v>
       </c>
@@ -5364,7 +5379,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="91"/>
+      <c r="B128" s="97"/>
       <c r="C128" s="14" t="s">
         <v>63</v>
       </c>
@@ -5377,7 +5392,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="91"/>
+      <c r="B129" s="97"/>
       <c r="C129" s="14" t="s">
         <v>50</v>
       </c>
@@ -5390,7 +5405,7 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="91"/>
+      <c r="B130" s="97"/>
       <c r="C130" s="14" t="s">
         <v>76</v>
       </c>
@@ -5403,7 +5418,7 @@
       </c>
     </row>
     <row r="131" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="91"/>
+      <c r="B131" s="97"/>
       <c r="C131" s="14" t="s">
         <v>77</v>
       </c>
@@ -5416,7 +5431,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B132" s="91"/>
+      <c r="B132" s="97"/>
       <c r="C132" s="14" t="s">
         <v>78</v>
       </c>
@@ -5429,7 +5444,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B133" s="91"/>
+      <c r="B133" s="97"/>
       <c r="C133" s="14" t="s">
         <v>79</v>
       </c>
@@ -5442,7 +5457,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B134" s="91"/>
+      <c r="B134" s="97"/>
       <c r="C134" s="14" t="s">
         <v>80</v>
       </c>
@@ -5455,7 +5470,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B135" s="91"/>
+      <c r="B135" s="97"/>
       <c r="C135" s="14" t="s">
         <v>82</v>
       </c>
@@ -5468,7 +5483,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B136" s="91"/>
+      <c r="B136" s="97"/>
       <c r="C136" s="14" t="s">
         <v>27</v>
       </c>
@@ -5481,7 +5496,7 @@
       </c>
     </row>
     <row r="137" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B137" s="91"/>
+      <c r="B137" s="97"/>
       <c r="C137" s="14" t="s">
         <v>53</v>
       </c>
@@ -5494,7 +5509,7 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B138" s="91"/>
+      <c r="B138" s="97"/>
       <c r="C138" s="14" t="s">
         <v>54</v>
       </c>
@@ -5507,7 +5522,7 @@
       </c>
     </row>
     <row r="139" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B139" s="91"/>
+      <c r="B139" s="97"/>
       <c r="C139" s="14" t="s">
         <v>55</v>
       </c>
@@ -5520,7 +5535,7 @@
       </c>
     </row>
     <row r="140" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B140" s="91"/>
+      <c r="B140" s="97"/>
       <c r="C140" s="14" t="s">
         <v>56</v>
       </c>
@@ -5533,7 +5548,7 @@
       </c>
     </row>
     <row r="141" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B141" s="91"/>
+      <c r="B141" s="97"/>
       <c r="C141" s="14" t="s">
         <v>57</v>
       </c>
@@ -5546,7 +5561,7 @@
       </c>
     </row>
     <row r="142" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B142" s="91"/>
+      <c r="B142" s="97"/>
       <c r="C142" s="14" t="s">
         <v>58</v>
       </c>
@@ -5559,7 +5574,7 @@
       </c>
     </row>
     <row r="143" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="91"/>
+      <c r="B143" s="97"/>
       <c r="C143" s="14" t="s">
         <v>59</v>
       </c>
@@ -5572,7 +5587,7 @@
       </c>
     </row>
     <row r="144" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B144" s="91"/>
+      <c r="B144" s="97"/>
       <c r="C144" s="14" t="s">
         <v>60</v>
       </c>
@@ -5585,7 +5600,7 @@
       </c>
     </row>
     <row r="145" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B145" s="91"/>
+      <c r="B145" s="97"/>
       <c r="C145" s="14" t="s">
         <v>61</v>
       </c>
@@ -5598,7 +5613,7 @@
       </c>
     </row>
     <row r="146" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B146" s="91"/>
+      <c r="B146" s="97"/>
       <c r="C146" s="14" t="s">
         <v>62</v>
       </c>
@@ -5611,7 +5626,7 @@
       </c>
     </row>
     <row r="147" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B147" s="91"/>
+      <c r="B147" s="97"/>
       <c r="C147" s="14" t="s">
         <v>47</v>
       </c>
@@ -5624,7 +5639,7 @@
       </c>
     </row>
     <row r="148" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B148" s="91"/>
+      <c r="B148" s="97"/>
       <c r="C148" s="14" t="s">
         <v>48</v>
       </c>
@@ -5637,7 +5652,7 @@
       </c>
     </row>
     <row r="149" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="91"/>
+      <c r="B149" s="97"/>
       <c r="C149" s="14" t="s">
         <v>49</v>
       </c>
@@ -5650,7 +5665,7 @@
       </c>
     </row>
     <row r="150" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="91"/>
+      <c r="B150" s="97"/>
       <c r="C150" s="14" t="s">
         <v>35</v>
       </c>
@@ -5663,7 +5678,7 @@
       </c>
     </row>
     <row r="151" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="91"/>
+      <c r="B151" s="97"/>
       <c r="C151" s="14" t="s">
         <v>36</v>
       </c>
@@ -5676,7 +5691,7 @@
       </c>
     </row>
     <row r="152" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="91"/>
+      <c r="B152" s="97"/>
       <c r="C152" s="14" t="s">
         <v>37</v>
       </c>
@@ -5689,7 +5704,7 @@
       </c>
     </row>
     <row r="153" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="91"/>
+      <c r="B153" s="97"/>
       <c r="C153" s="14" t="s">
         <v>38</v>
       </c>
@@ -5702,7 +5717,7 @@
       </c>
     </row>
     <row r="154" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="91"/>
+      <c r="B154" s="97"/>
       <c r="C154" s="15" t="s">
         <v>89</v>
       </c>
@@ -5715,7 +5730,7 @@
       </c>
     </row>
     <row r="155" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="108" t="s">
+      <c r="B155" s="94" t="s">
         <v>336</v>
       </c>
       <c r="C155" s="58" t="s">
@@ -5724,7 +5739,7 @@
       <c r="D155" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="E155" s="107" t="s">
+      <c r="E155" s="91" t="s">
         <v>634</v>
       </c>
       <c r="F155" s="82" t="s">
@@ -5732,423 +5747,423 @@
       </c>
     </row>
     <row r="156" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="96"/>
+      <c r="B156" s="95"/>
       <c r="C156" s="27" t="s">
         <v>796</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="E156" s="101"/>
+      <c r="E156" s="92"/>
       <c r="F156" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B157" s="96"/>
+      <c r="B157" s="95"/>
       <c r="C157" s="27" t="s">
         <v>797</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="E157" s="101"/>
+      <c r="E157" s="92"/>
       <c r="F157" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B158" s="96"/>
+      <c r="B158" s="95"/>
       <c r="C158" s="27" t="s">
         <v>798</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="E158" s="101"/>
+      <c r="E158" s="92"/>
       <c r="F158" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="159" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B159" s="96"/>
+      <c r="B159" s="95"/>
       <c r="C159" s="27" t="s">
         <v>799</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="E159" s="101"/>
+      <c r="E159" s="92"/>
       <c r="F159" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="160" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B160" s="96"/>
+      <c r="B160" s="95"/>
       <c r="C160" s="27" t="s">
         <v>800</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="E160" s="101"/>
+      <c r="E160" s="92"/>
       <c r="F160" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="161" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B161" s="96"/>
+      <c r="B161" s="95"/>
       <c r="C161" s="27" t="s">
         <v>801</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="E161" s="101"/>
+      <c r="E161" s="92"/>
       <c r="F161" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="162" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B162" s="96"/>
+      <c r="B162" s="95"/>
       <c r="C162" s="27" t="s">
         <v>802</v>
       </c>
       <c r="D162" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="E162" s="101"/>
+      <c r="E162" s="92"/>
       <c r="F162" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B163" s="96"/>
+      <c r="B163" s="95"/>
       <c r="C163" s="27" t="s">
         <v>808</v>
       </c>
       <c r="D163" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="E163" s="101"/>
+      <c r="E163" s="92"/>
       <c r="F163" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="164" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B164" s="96"/>
+      <c r="B164" s="95"/>
       <c r="C164" s="27" t="s">
         <v>807</v>
       </c>
       <c r="D164" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="E164" s="101"/>
+      <c r="E164" s="92"/>
       <c r="F164" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="165" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B165" s="96"/>
+      <c r="B165" s="95"/>
       <c r="C165" s="27" t="s">
         <v>806</v>
       </c>
       <c r="D165" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="E165" s="101"/>
+      <c r="E165" s="92"/>
       <c r="F165" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="166" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B166" s="96"/>
+      <c r="B166" s="95"/>
       <c r="C166" s="27" t="s">
         <v>803</v>
       </c>
       <c r="D166" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="E166" s="101"/>
+      <c r="E166" s="92"/>
       <c r="F166" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="167" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="96"/>
+      <c r="B167" s="95"/>
       <c r="C167" s="27" t="s">
         <v>804</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="E167" s="101"/>
+      <c r="E167" s="92"/>
       <c r="F167" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="168" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="96"/>
+      <c r="B168" s="95"/>
       <c r="C168" s="27" t="s">
         <v>805</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="E168" s="101"/>
+      <c r="E168" s="92"/>
       <c r="F168" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="169" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B169" s="96"/>
+      <c r="B169" s="95"/>
       <c r="C169" s="27" t="s">
         <v>792</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="E169" s="101"/>
+      <c r="E169" s="92"/>
       <c r="F169" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="170" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="96"/>
+      <c r="B170" s="95"/>
       <c r="C170" s="27" t="s">
         <v>791</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="E170" s="101"/>
+      <c r="E170" s="92"/>
       <c r="F170" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="171" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B171" s="96"/>
+      <c r="B171" s="95"/>
       <c r="C171" s="27" t="s">
         <v>790</v>
       </c>
       <c r="D171" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="E171" s="101"/>
+      <c r="E171" s="92"/>
       <c r="F171" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="172" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="96"/>
+      <c r="B172" s="95"/>
       <c r="C172" s="27" t="s">
         <v>789</v>
       </c>
       <c r="D172" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="E172" s="101"/>
+      <c r="E172" s="92"/>
       <c r="F172" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="173" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="96"/>
+      <c r="B173" s="95"/>
       <c r="C173" s="27" t="s">
         <v>788</v>
       </c>
       <c r="D173" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="E173" s="101"/>
+      <c r="E173" s="92"/>
       <c r="F173" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="174" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B174" s="96"/>
+      <c r="B174" s="95"/>
       <c r="C174" s="27" t="s">
         <v>787</v>
       </c>
       <c r="D174" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="E174" s="101"/>
+      <c r="E174" s="92"/>
       <c r="F174" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="175" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="96"/>
+      <c r="B175" s="95"/>
       <c r="C175" s="27" t="s">
         <v>786</v>
       </c>
       <c r="D175" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="E175" s="101"/>
+      <c r="E175" s="92"/>
       <c r="F175" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="176" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B176" s="96"/>
+      <c r="B176" s="95"/>
       <c r="C176" s="27" t="s">
         <v>785</v>
       </c>
       <c r="D176" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="E176" s="101"/>
+      <c r="E176" s="92"/>
       <c r="F176" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="177" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="96"/>
+      <c r="B177" s="95"/>
       <c r="C177" s="27" t="s">
         <v>784</v>
       </c>
       <c r="D177" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="E177" s="101"/>
+      <c r="E177" s="92"/>
       <c r="F177" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="178" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="96"/>
+      <c r="B178" s="95"/>
       <c r="C178" s="27" t="s">
         <v>783</v>
       </c>
       <c r="D178" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="E178" s="101"/>
+      <c r="E178" s="92"/>
       <c r="F178" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B179" s="96"/>
+      <c r="B179" s="95"/>
       <c r="C179" s="27" t="s">
         <v>782</v>
       </c>
       <c r="D179" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="E179" s="101"/>
+      <c r="E179" s="92"/>
       <c r="F179" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="180" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B180" s="96"/>
+      <c r="B180" s="95"/>
       <c r="C180" s="27" t="s">
         <v>781</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="E180" s="101"/>
+      <c r="E180" s="92"/>
       <c r="F180" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="181" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B181" s="96"/>
+      <c r="B181" s="95"/>
       <c r="C181" s="27" t="s">
         <v>780</v>
       </c>
       <c r="D181" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="E181" s="101"/>
+      <c r="E181" s="92"/>
       <c r="F181" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="182" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B182" s="96"/>
+      <c r="B182" s="95"/>
       <c r="C182" s="55" t="s">
         <v>779</v>
       </c>
       <c r="D182" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="E182" s="101"/>
+      <c r="E182" s="92"/>
       <c r="F182" s="57" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="183" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B183" s="96"/>
+      <c r="B183" s="95"/>
       <c r="C183" s="27" t="s">
         <v>778</v>
       </c>
       <c r="D183" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="E183" s="101"/>
+      <c r="E183" s="92"/>
       <c r="F183" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="184" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B184" s="96"/>
+      <c r="B184" s="95"/>
       <c r="C184" s="27" t="s">
         <v>777</v>
       </c>
       <c r="D184" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="E184" s="101"/>
+      <c r="E184" s="92"/>
       <c r="F184" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="96"/>
+      <c r="B185" s="95"/>
       <c r="C185" s="27" t="s">
         <v>701</v>
       </c>
       <c r="D185" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="E185" s="101"/>
+      <c r="E185" s="92"/>
       <c r="F185" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="186" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="96"/>
+      <c r="B186" s="95"/>
       <c r="C186" s="27" t="s">
         <v>776</v>
       </c>
       <c r="D186" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="E186" s="101"/>
+      <c r="E186" s="92"/>
       <c r="F186" s="72" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="187" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="99"/>
+      <c r="B187" s="96"/>
       <c r="C187" s="28" t="s">
         <v>775</v>
       </c>
       <c r="D187" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="E187" s="102"/>
+      <c r="E187" s="93"/>
       <c r="F187" s="79" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="188" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B188" s="96" t="s">
+      <c r="B188" s="95" t="s">
         <v>632</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -6163,7 +6178,7 @@
       </c>
     </row>
     <row r="189" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="96"/>
+      <c r="B189" s="95"/>
       <c r="C189" s="5" t="s">
         <v>22</v>
       </c>
@@ -6176,7 +6191,7 @@
       </c>
     </row>
     <row r="190" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B190" s="96"/>
+      <c r="B190" s="95"/>
       <c r="C190" s="5" t="s">
         <v>23</v>
       </c>
@@ -6189,7 +6204,7 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="99"/>
+      <c r="B191" s="96"/>
       <c r="C191" s="9" t="s">
         <v>0</v>
       </c>
@@ -6202,7 +6217,7 @@
       </c>
     </row>
     <row r="192" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B192" s="96" t="s">
+      <c r="B192" s="95" t="s">
         <v>563</v>
       </c>
       <c r="C192" s="30" t="s">
@@ -6217,7 +6232,7 @@
       </c>
     </row>
     <row r="193" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B193" s="96"/>
+      <c r="B193" s="95"/>
       <c r="C193" s="62" t="s">
         <v>25</v>
       </c>
@@ -6232,7 +6247,7 @@
       </c>
     </row>
     <row r="194" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B194" s="96"/>
+      <c r="B194" s="95"/>
       <c r="C194" s="29" t="s">
         <v>656</v>
       </c>
@@ -6245,7 +6260,7 @@
       </c>
     </row>
     <row r="195" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B195" s="96"/>
+      <c r="B195" s="95"/>
       <c r="C195" s="5" t="s">
         <v>429</v>
       </c>
@@ -6258,7 +6273,7 @@
       </c>
     </row>
     <row r="196" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="96"/>
+      <c r="B196" s="95"/>
       <c r="C196" s="9" t="s">
         <v>24</v>
       </c>
@@ -6271,7 +6286,7 @@
       </c>
     </row>
     <row r="197" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B197" s="108" t="s">
+      <c r="B197" s="94" t="s">
         <v>119</v>
       </c>
       <c r="C197" s="59" t="s">
@@ -6286,7 +6301,7 @@
       </c>
     </row>
     <row r="198" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="96"/>
+      <c r="B198" s="95"/>
       <c r="C198" s="16" t="s">
         <v>432</v>
       </c>
@@ -6299,7 +6314,7 @@
       </c>
     </row>
     <row r="199" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="96"/>
+      <c r="B199" s="95"/>
       <c r="C199" s="16" t="s">
         <v>433</v>
       </c>
@@ -6312,7 +6327,7 @@
       </c>
     </row>
     <row r="200" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="96"/>
+      <c r="B200" s="95"/>
       <c r="C200" s="16" t="s">
         <v>434</v>
       </c>
@@ -6325,7 +6340,7 @@
       </c>
     </row>
     <row r="201" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B201" s="96"/>
+      <c r="B201" s="95"/>
       <c r="C201" s="16" t="s">
         <v>436</v>
       </c>
@@ -6338,7 +6353,7 @@
       </c>
     </row>
     <row r="202" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B202" s="96"/>
+      <c r="B202" s="95"/>
       <c r="C202" s="16" t="s">
         <v>595</v>
       </c>
@@ -6351,7 +6366,7 @@
       </c>
     </row>
     <row r="203" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B203" s="96"/>
+      <c r="B203" s="95"/>
       <c r="C203" s="16" t="s">
         <v>437</v>
       </c>
@@ -6364,7 +6379,7 @@
       </c>
     </row>
     <row r="204" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B204" s="96"/>
+      <c r="B204" s="95"/>
       <c r="C204" s="16" t="s">
         <v>439</v>
       </c>
@@ -6377,7 +6392,7 @@
       </c>
     </row>
     <row r="205" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="96"/>
+      <c r="B205" s="95"/>
       <c r="C205" s="16" t="s">
         <v>440</v>
       </c>
@@ -6390,7 +6405,7 @@
       </c>
     </row>
     <row r="206" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B206" s="96"/>
+      <c r="B206" s="95"/>
       <c r="C206" s="16" t="s">
         <v>442</v>
       </c>
@@ -6403,7 +6418,7 @@
       </c>
     </row>
     <row r="207" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="96"/>
+      <c r="B207" s="95"/>
       <c r="C207" s="16" t="s">
         <v>444</v>
       </c>
@@ -6416,7 +6431,7 @@
       </c>
     </row>
     <row r="208" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B208" s="96"/>
+      <c r="B208" s="95"/>
       <c r="C208" s="16" t="s">
         <v>445</v>
       </c>
@@ -6429,7 +6444,7 @@
       </c>
     </row>
     <row r="209" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="96"/>
+      <c r="B209" s="95"/>
       <c r="C209" s="16" t="s">
         <v>446</v>
       </c>
@@ -6442,7 +6457,7 @@
       </c>
     </row>
     <row r="210" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="96"/>
+      <c r="B210" s="95"/>
       <c r="C210" s="16" t="s">
         <v>597</v>
       </c>
@@ -6455,7 +6470,7 @@
       </c>
     </row>
     <row r="211" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="96"/>
+      <c r="B211" s="95"/>
       <c r="C211" s="16" t="s">
         <v>447</v>
       </c>
@@ -6468,7 +6483,7 @@
       </c>
     </row>
     <row r="212" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="96"/>
+      <c r="B212" s="95"/>
       <c r="C212" s="16" t="s">
         <v>448</v>
       </c>
@@ -6481,7 +6496,7 @@
       </c>
     </row>
     <row r="213" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="96"/>
+      <c r="B213" s="95"/>
       <c r="C213" s="16" t="s">
         <v>449</v>
       </c>
@@ -6494,7 +6509,7 @@
       </c>
     </row>
     <row r="214" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="96"/>
+      <c r="B214" s="95"/>
       <c r="C214" s="16" t="s">
         <v>452</v>
       </c>
@@ -6507,7 +6522,7 @@
       </c>
     </row>
     <row r="215" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B215" s="96"/>
+      <c r="B215" s="95"/>
       <c r="C215" s="16" t="s">
         <v>453</v>
       </c>
@@ -6520,7 +6535,7 @@
       </c>
     </row>
     <row r="216" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="96"/>
+      <c r="B216" s="95"/>
       <c r="C216" s="16" t="s">
         <v>455</v>
       </c>
@@ -6533,7 +6548,7 @@
       </c>
     </row>
     <row r="217" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="96"/>
+      <c r="B217" s="95"/>
       <c r="C217" s="16" t="s">
         <v>456</v>
       </c>
@@ -6546,7 +6561,7 @@
       </c>
     </row>
     <row r="218" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="96"/>
+      <c r="B218" s="95"/>
       <c r="C218" s="16" t="s">
         <v>458</v>
       </c>
@@ -6559,7 +6574,7 @@
       </c>
     </row>
     <row r="219" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="96"/>
+      <c r="B219" s="95"/>
       <c r="C219" s="16" t="s">
         <v>460</v>
       </c>
@@ -6572,7 +6587,7 @@
       </c>
     </row>
     <row r="220" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="96"/>
+      <c r="B220" s="95"/>
       <c r="C220" s="16" t="s">
         <v>462</v>
       </c>
@@ -6585,7 +6600,7 @@
       </c>
     </row>
     <row r="221" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="96"/>
+      <c r="B221" s="95"/>
       <c r="C221" s="16" t="s">
         <v>464</v>
       </c>
@@ -6598,7 +6613,7 @@
       </c>
     </row>
     <row r="222" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="96"/>
+      <c r="B222" s="95"/>
       <c r="C222" s="33" t="s">
         <v>619</v>
       </c>
@@ -6611,7 +6626,7 @@
       </c>
     </row>
     <row r="223" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="96"/>
+      <c r="B223" s="95"/>
       <c r="C223" s="33" t="s">
         <v>621</v>
       </c>
@@ -6624,7 +6639,7 @@
       </c>
     </row>
     <row r="224" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="96"/>
+      <c r="B224" s="95"/>
       <c r="C224" s="33" t="s">
         <v>605</v>
       </c>
@@ -6637,7 +6652,7 @@
       </c>
     </row>
     <row r="225" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="96"/>
+      <c r="B225" s="95"/>
       <c r="C225" s="33" t="s">
         <v>607</v>
       </c>
@@ -6650,7 +6665,7 @@
       </c>
     </row>
     <row r="226" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="96"/>
+      <c r="B226" s="95"/>
       <c r="C226" s="36" t="s">
         <v>471</v>
       </c>
@@ -6663,7 +6678,7 @@
       </c>
     </row>
     <row r="227" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="96"/>
+      <c r="B227" s="95"/>
       <c r="C227" s="36" t="s">
         <v>473</v>
       </c>
@@ -6676,7 +6691,7 @@
       </c>
     </row>
     <row r="228" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="96"/>
+      <c r="B228" s="95"/>
       <c r="C228" s="36" t="s">
         <v>475</v>
       </c>
@@ -6689,7 +6704,7 @@
       </c>
     </row>
     <row r="229" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B229" s="96"/>
+      <c r="B229" s="95"/>
       <c r="C229" s="36" t="s">
         <v>477</v>
       </c>
@@ -6702,7 +6717,7 @@
       </c>
     </row>
     <row r="230" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B230" s="96"/>
+      <c r="B230" s="95"/>
       <c r="C230" s="36" t="s">
         <v>479</v>
       </c>
@@ -6715,7 +6730,7 @@
       </c>
     </row>
     <row r="231" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B231" s="96"/>
+      <c r="B231" s="95"/>
       <c r="C231" s="36" t="s">
         <v>481</v>
       </c>
@@ -6728,7 +6743,7 @@
       </c>
     </row>
     <row r="232" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B232" s="96"/>
+      <c r="B232" s="95"/>
       <c r="C232" s="36" t="s">
         <v>483</v>
       </c>
@@ -6741,7 +6756,7 @@
       </c>
     </row>
     <row r="233" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="96"/>
+      <c r="B233" s="95"/>
       <c r="C233" s="36" t="s">
         <v>486</v>
       </c>
@@ -6754,7 +6769,7 @@
       </c>
     </row>
     <row r="234" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="96"/>
+      <c r="B234" s="95"/>
       <c r="C234" s="36" t="s">
         <v>487</v>
       </c>
@@ -6767,7 +6782,7 @@
       </c>
     </row>
     <row r="235" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B235" s="96"/>
+      <c r="B235" s="95"/>
       <c r="C235" s="11" t="s">
         <v>489</v>
       </c>
@@ -6780,7 +6795,7 @@
       </c>
     </row>
     <row r="236" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="96"/>
+      <c r="B236" s="95"/>
       <c r="C236" s="36" t="s">
         <v>491</v>
       </c>
@@ -6793,7 +6808,7 @@
       </c>
     </row>
     <row r="237" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="96"/>
+      <c r="B237" s="95"/>
       <c r="C237" s="16" t="s">
         <v>466</v>
       </c>
@@ -6806,7 +6821,7 @@
       </c>
     </row>
     <row r="238" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="96"/>
+      <c r="B238" s="95"/>
       <c r="C238" s="16" t="s">
         <v>465</v>
       </c>
@@ -6819,7 +6834,7 @@
       </c>
     </row>
     <row r="239" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="96"/>
+      <c r="B239" s="95"/>
       <c r="C239" s="16" t="s">
         <v>467</v>
       </c>
@@ -6832,7 +6847,7 @@
       </c>
     </row>
     <row r="240" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="96"/>
+      <c r="B240" s="95"/>
       <c r="C240" s="16" t="s">
         <v>468</v>
       </c>
@@ -6845,7 +6860,7 @@
       </c>
     </row>
     <row r="241" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="96"/>
+      <c r="B241" s="95"/>
       <c r="C241" s="16" t="s">
         <v>469</v>
       </c>
@@ -6858,7 +6873,7 @@
       </c>
     </row>
     <row r="242" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="96"/>
+      <c r="B242" s="95"/>
       <c r="C242" s="16" t="s">
         <v>470</v>
       </c>
@@ -6871,7 +6886,7 @@
       </c>
     </row>
     <row r="243" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="96"/>
+      <c r="B243" s="95"/>
       <c r="C243" s="36" t="s">
         <v>493</v>
       </c>
@@ -6884,7 +6899,7 @@
       </c>
     </row>
     <row r="244" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B244" s="96"/>
+      <c r="B244" s="95"/>
       <c r="C244" s="36" t="s">
         <v>495</v>
       </c>
@@ -6897,7 +6912,7 @@
       </c>
     </row>
     <row r="245" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="96"/>
+      <c r="B245" s="95"/>
       <c r="C245" s="11" t="s">
         <v>497</v>
       </c>
@@ -6910,7 +6925,7 @@
       </c>
     </row>
     <row r="246" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="96"/>
+      <c r="B246" s="95"/>
       <c r="C246" s="33" t="s">
         <v>499</v>
       </c>
@@ -6923,7 +6938,7 @@
       </c>
     </row>
     <row r="247" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="96"/>
+      <c r="B247" s="95"/>
       <c r="C247" s="33" t="s">
         <v>505</v>
       </c>
@@ -6936,7 +6951,7 @@
       </c>
     </row>
     <row r="248" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="96"/>
+      <c r="B248" s="95"/>
       <c r="C248" s="33" t="s">
         <v>504</v>
       </c>
@@ -6949,7 +6964,7 @@
       </c>
     </row>
     <row r="249" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="96"/>
+      <c r="B249" s="95"/>
       <c r="C249" s="16" t="s">
         <v>500</v>
       </c>
@@ -6962,7 +6977,7 @@
       </c>
     </row>
     <row r="250" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="96"/>
+      <c r="B250" s="95"/>
       <c r="C250" s="16" t="s">
         <v>502</v>
       </c>
@@ -6975,7 +6990,7 @@
       </c>
     </row>
     <row r="251" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="96"/>
+      <c r="B251" s="95"/>
       <c r="C251" s="33" t="s">
         <v>506</v>
       </c>
@@ -6988,7 +7003,7 @@
       </c>
     </row>
     <row r="252" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="96"/>
+      <c r="B252" s="95"/>
       <c r="C252" s="33" t="s">
         <v>507</v>
       </c>
@@ -7001,7 +7016,7 @@
       </c>
     </row>
     <row r="253" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="96"/>
+      <c r="B253" s="95"/>
       <c r="C253" s="33" t="s">
         <v>508</v>
       </c>
@@ -7014,7 +7029,7 @@
       </c>
     </row>
     <row r="254" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="96"/>
+      <c r="B254" s="95"/>
       <c r="C254" s="33" t="s">
         <v>509</v>
       </c>
@@ -7027,7 +7042,7 @@
       </c>
     </row>
     <row r="255" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="96"/>
+      <c r="B255" s="95"/>
       <c r="C255" s="33" t="s">
         <v>510</v>
       </c>
@@ -7040,7 +7055,7 @@
       </c>
     </row>
     <row r="256" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="96"/>
+      <c r="B256" s="95"/>
       <c r="C256" s="33" t="s">
         <v>511</v>
       </c>
@@ -7053,7 +7068,7 @@
       </c>
     </row>
     <row r="257" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B257" s="96"/>
+      <c r="B257" s="95"/>
       <c r="C257" s="33" t="s">
         <v>512</v>
       </c>
@@ -7066,7 +7081,7 @@
       </c>
     </row>
     <row r="258" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="96"/>
+      <c r="B258" s="95"/>
       <c r="C258" s="33" t="s">
         <v>513</v>
       </c>
@@ -7079,7 +7094,7 @@
       </c>
     </row>
     <row r="259" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="96"/>
+      <c r="B259" s="95"/>
       <c r="C259" s="33" t="s">
         <v>514</v>
       </c>
@@ -7092,7 +7107,7 @@
       </c>
     </row>
     <row r="260" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="96"/>
+      <c r="B260" s="95"/>
       <c r="C260" s="33" t="s">
         <v>516</v>
       </c>
@@ -7105,7 +7120,7 @@
       </c>
     </row>
     <row r="261" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B261" s="96"/>
+      <c r="B261" s="95"/>
       <c r="C261" s="33" t="s">
         <v>518</v>
       </c>
@@ -7118,7 +7133,7 @@
       </c>
     </row>
     <row r="262" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="96"/>
+      <c r="B262" s="95"/>
       <c r="C262" s="33" t="s">
         <v>520</v>
       </c>
@@ -7131,7 +7146,7 @@
       </c>
     </row>
     <row r="263" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="96"/>
+      <c r="B263" s="95"/>
       <c r="C263" s="33" t="s">
         <v>522</v>
       </c>
@@ -7144,7 +7159,7 @@
       </c>
     </row>
     <row r="264" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B264" s="96"/>
+      <c r="B264" s="95"/>
       <c r="C264" s="33" t="s">
         <v>523</v>
       </c>
@@ -7157,7 +7172,7 @@
       </c>
     </row>
     <row r="265" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="96"/>
+      <c r="B265" s="95"/>
       <c r="C265" s="33" t="s">
         <v>529</v>
       </c>
@@ -7170,7 +7185,7 @@
       </c>
     </row>
     <row r="266" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="96"/>
+      <c r="B266" s="95"/>
       <c r="C266" s="16" t="s">
         <v>525</v>
       </c>
@@ -7183,7 +7198,7 @@
       </c>
     </row>
     <row r="267" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="96"/>
+      <c r="B267" s="95"/>
       <c r="C267" s="16" t="s">
         <v>527</v>
       </c>
@@ -7196,7 +7211,7 @@
       </c>
     </row>
     <row r="268" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="96"/>
+      <c r="B268" s="95"/>
       <c r="C268" s="16" t="s">
         <v>530</v>
       </c>
@@ -7209,7 +7224,7 @@
       </c>
     </row>
     <row r="269" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="96"/>
+      <c r="B269" s="95"/>
       <c r="C269" s="16" t="s">
         <v>532</v>
       </c>
@@ -7222,7 +7237,7 @@
       </c>
     </row>
     <row r="270" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="96"/>
+      <c r="B270" s="95"/>
       <c r="C270" s="33" t="s">
         <v>534</v>
       </c>
@@ -7235,7 +7250,7 @@
       </c>
     </row>
     <row r="271" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="96"/>
+      <c r="B271" s="95"/>
       <c r="C271" s="33" t="s">
         <v>609</v>
       </c>
@@ -7248,7 +7263,7 @@
       </c>
     </row>
     <row r="272" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="96"/>
+      <c r="B272" s="95"/>
       <c r="C272" s="33" t="s">
         <v>599</v>
       </c>
@@ -7261,7 +7276,7 @@
       </c>
     </row>
     <row r="273" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="96"/>
+      <c r="B273" s="95"/>
       <c r="C273" s="33" t="s">
         <v>535</v>
       </c>
@@ -7274,7 +7289,7 @@
       </c>
     </row>
     <row r="274" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="96"/>
+      <c r="B274" s="95"/>
       <c r="C274" s="33" t="s">
         <v>613</v>
       </c>
@@ -7287,7 +7302,7 @@
       </c>
     </row>
     <row r="275" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="96"/>
+      <c r="B275" s="95"/>
       <c r="C275" s="33" t="s">
         <v>617</v>
       </c>
@@ -7300,7 +7315,7 @@
       </c>
     </row>
     <row r="276" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="96"/>
+      <c r="B276" s="95"/>
       <c r="C276" s="33" t="s">
         <v>615</v>
       </c>
@@ -7313,7 +7328,7 @@
       </c>
     </row>
     <row r="277" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="96"/>
+      <c r="B277" s="95"/>
       <c r="C277" s="33" t="s">
         <v>611</v>
       </c>
@@ -7326,7 +7341,7 @@
       </c>
     </row>
     <row r="278" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="96"/>
+      <c r="B278" s="95"/>
       <c r="C278" s="33" t="s">
         <v>536</v>
       </c>
@@ -7339,7 +7354,7 @@
       </c>
     </row>
     <row r="279" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="96"/>
+      <c r="B279" s="95"/>
       <c r="C279" s="33" t="s">
         <v>537</v>
       </c>
@@ -7352,7 +7367,7 @@
       </c>
     </row>
     <row r="280" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B280" s="96"/>
+      <c r="B280" s="95"/>
       <c r="C280" s="33" t="s">
         <v>538</v>
       </c>
@@ -7365,7 +7380,7 @@
       </c>
     </row>
     <row r="281" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="96"/>
+      <c r="B281" s="95"/>
       <c r="C281" s="33" t="s">
         <v>540</v>
       </c>
@@ -7378,7 +7393,7 @@
       </c>
     </row>
     <row r="282" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="96"/>
+      <c r="B282" s="95"/>
       <c r="C282" s="33" t="s">
         <v>539</v>
       </c>
@@ -7391,7 +7406,7 @@
       </c>
     </row>
     <row r="283" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="96"/>
+      <c r="B283" s="95"/>
       <c r="C283" s="33" t="s">
         <v>541</v>
       </c>
@@ -7404,7 +7419,7 @@
       </c>
     </row>
     <row r="284" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="96"/>
+      <c r="B284" s="95"/>
       <c r="C284" s="33" t="s">
         <v>623</v>
       </c>
@@ -7417,7 +7432,7 @@
       </c>
     </row>
     <row r="285" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="96"/>
+      <c r="B285" s="95"/>
       <c r="C285" s="33" t="s">
         <v>542</v>
       </c>
@@ -7430,7 +7445,7 @@
       </c>
     </row>
     <row r="286" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B286" s="96"/>
+      <c r="B286" s="95"/>
       <c r="C286" s="33" t="s">
         <v>543</v>
       </c>
@@ -7443,7 +7458,7 @@
       </c>
     </row>
     <row r="287" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="96"/>
+      <c r="B287" s="95"/>
       <c r="C287" s="33" t="s">
         <v>544</v>
       </c>
@@ -7456,7 +7471,7 @@
       </c>
     </row>
     <row r="288" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="96"/>
+      <c r="B288" s="95"/>
       <c r="C288" s="33" t="s">
         <v>545</v>
       </c>
@@ -7469,7 +7484,7 @@
       </c>
     </row>
     <row r="289" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="96"/>
+      <c r="B289" s="95"/>
       <c r="C289" s="33" t="s">
         <v>546</v>
       </c>
@@ -7482,7 +7497,7 @@
       </c>
     </row>
     <row r="290" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="96"/>
+      <c r="B290" s="95"/>
       <c r="C290" s="33" t="s">
         <v>547</v>
       </c>
@@ -7495,7 +7510,7 @@
       </c>
     </row>
     <row r="291" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="96"/>
+      <c r="B291" s="95"/>
       <c r="C291" s="33" t="s">
         <v>548</v>
       </c>
@@ -7508,7 +7523,7 @@
       </c>
     </row>
     <row r="292" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="96"/>
+      <c r="B292" s="95"/>
       <c r="C292" s="33" t="s">
         <v>549</v>
       </c>
@@ -7521,7 +7536,7 @@
       </c>
     </row>
     <row r="293" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="96"/>
+      <c r="B293" s="95"/>
       <c r="C293" s="33" t="s">
         <v>550</v>
       </c>
@@ -7534,7 +7549,7 @@
       </c>
     </row>
     <row r="294" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="96"/>
+      <c r="B294" s="95"/>
       <c r="C294" s="33" t="s">
         <v>551</v>
       </c>
@@ -7547,7 +7562,7 @@
       </c>
     </row>
     <row r="295" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="96"/>
+      <c r="B295" s="95"/>
       <c r="C295" s="33" t="s">
         <v>552</v>
       </c>
@@ -7560,7 +7575,7 @@
       </c>
     </row>
     <row r="296" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="96"/>
+      <c r="B296" s="95"/>
       <c r="C296" s="33" t="s">
         <v>603</v>
       </c>
@@ -7573,7 +7588,7 @@
       </c>
     </row>
     <row r="297" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="96"/>
+      <c r="B297" s="95"/>
       <c r="C297" s="33" t="s">
         <v>553</v>
       </c>
@@ -7586,7 +7601,7 @@
       </c>
     </row>
     <row r="298" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="96"/>
+      <c r="B298" s="95"/>
       <c r="C298" s="33" t="s">
         <v>556</v>
       </c>
@@ -7599,7 +7614,7 @@
       </c>
     </row>
     <row r="299" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="96"/>
+      <c r="B299" s="95"/>
       <c r="C299" s="33" t="s">
         <v>554</v>
       </c>
@@ -7612,7 +7627,7 @@
       </c>
     </row>
     <row r="300" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="96"/>
+      <c r="B300" s="95"/>
       <c r="C300" s="33" t="s">
         <v>558</v>
       </c>
@@ -7625,7 +7640,7 @@
       </c>
     </row>
     <row r="301" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="96"/>
+      <c r="B301" s="95"/>
       <c r="C301" s="40" t="s">
         <v>555</v>
       </c>
@@ -7638,7 +7653,7 @@
       </c>
     </row>
     <row r="302" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="96"/>
+      <c r="B302" s="95"/>
       <c r="C302" s="11" t="s">
         <v>601</v>
       </c>
@@ -7651,7 +7666,7 @@
       </c>
     </row>
     <row r="303" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B303" s="96"/>
+      <c r="B303" s="95"/>
       <c r="C303" s="60" t="s">
         <v>659</v>
       </c>
@@ -7664,7 +7679,7 @@
       </c>
     </row>
     <row r="304" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="96"/>
+      <c r="B304" s="95"/>
       <c r="C304" s="16" t="s">
         <v>120</v>
       </c>
@@ -7677,7 +7692,7 @@
       </c>
     </row>
     <row r="305" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="96"/>
+      <c r="B305" s="95"/>
       <c r="C305" s="16" t="s">
         <v>121</v>
       </c>
@@ -7690,7 +7705,7 @@
       </c>
     </row>
     <row r="306" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="96"/>
+      <c r="B306" s="95"/>
       <c r="C306" s="16" t="s">
         <v>122</v>
       </c>
@@ -7703,7 +7718,7 @@
       </c>
     </row>
     <row r="307" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="96"/>
+      <c r="B307" s="95"/>
       <c r="C307" s="16" t="s">
         <v>123</v>
       </c>
@@ -7716,7 +7731,7 @@
       </c>
     </row>
     <row r="308" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="96"/>
+      <c r="B308" s="95"/>
       <c r="C308" s="16" t="s">
         <v>125</v>
       </c>
@@ -7729,7 +7744,7 @@
       </c>
     </row>
     <row r="309" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="96"/>
+      <c r="B309" s="95"/>
       <c r="C309" s="11" t="s">
         <v>124</v>
       </c>
@@ -7742,7 +7757,7 @@
       </c>
     </row>
     <row r="310" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="96"/>
+      <c r="B310" s="95"/>
       <c r="C310" s="17" t="s">
         <v>126</v>
       </c>
@@ -7755,7 +7770,7 @@
       </c>
     </row>
     <row r="311" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="108" t="s">
+      <c r="B311" s="94" t="s">
         <v>345</v>
       </c>
       <c r="C311" s="3" t="s">
@@ -7770,7 +7785,7 @@
       </c>
     </row>
     <row r="312" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="96"/>
+      <c r="B312" s="95"/>
       <c r="C312" s="29" t="s">
         <v>655</v>
       </c>
@@ -7783,7 +7798,7 @@
       </c>
     </row>
     <row r="313" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="96"/>
+      <c r="B313" s="95"/>
       <c r="C313" s="5" t="s">
         <v>1</v>
       </c>
@@ -7796,7 +7811,7 @@
       </c>
     </row>
     <row r="314" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="96"/>
+      <c r="B314" s="95"/>
       <c r="C314" s="5" t="s">
         <v>12</v>
       </c>
@@ -7809,7 +7824,7 @@
       </c>
     </row>
     <row r="315" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="99"/>
+      <c r="B315" s="96"/>
       <c r="C315" s="9" t="s">
         <v>11</v>
       </c>
@@ -7824,12 +7839,6 @@
   </sheetData>
   <autoFilter ref="B2:F315" xr:uid="{9E47B4D2-1403-452C-A077-0E648DC9029F}"/>
   <mergeCells count="15">
-    <mergeCell ref="E155:E187"/>
-    <mergeCell ref="B155:B187"/>
-    <mergeCell ref="B311:B315"/>
-    <mergeCell ref="B197:B310"/>
-    <mergeCell ref="B192:B196"/>
-    <mergeCell ref="B188:B191"/>
     <mergeCell ref="B100:B154"/>
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="B88:B90"/>
@@ -7839,6 +7848,12 @@
     <mergeCell ref="E88:E90"/>
     <mergeCell ref="E27:E41"/>
     <mergeCell ref="E51:E75"/>
+    <mergeCell ref="E155:E187"/>
+    <mergeCell ref="B155:B187"/>
+    <mergeCell ref="B311:B315"/>
+    <mergeCell ref="B197:B310"/>
+    <mergeCell ref="B192:B196"/>
+    <mergeCell ref="B188:B191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7851,7 +7866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC17C55-4B70-41DB-86EA-D9B00294E901}">
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
@@ -13847,21 +13862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004F7AABC398522B40A32DAEEC36E85685" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fcd56fbdc9ca50fa66f2b7c9cf7a93ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="246f02dd96380beb4f7cdcce14d77fd6">
     <xsd:element name="properties">
@@ -13910,10 +13910,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083AA8F9-0094-42DD-9088-30A041B6BBAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CD8B8F-7010-4154-9283-2E108768C2EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13934,16 +13956,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CD8B8F-7010-4154-9283-2E108768C2EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083AA8F9-0094-42DD-9088-30A041B6BBAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>